--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AR2_50_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AR2_50_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,299 +417,276 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39400</v>
+        <v>39765</v>
       </c>
       <c r="B2">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D2">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39765</v>
+        <v>40130</v>
       </c>
       <c r="B3">
-        <v>2008</v>
+        <v>2009</v>
+      </c>
+      <c r="C3">
+        <v>-0.5555135891318952</v>
       </c>
       <c r="D3">
-        <v>2009</v>
-      </c>
-      <c r="E3">
-        <v>-0.7420476828353562</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>40130</v>
+        <v>40494</v>
       </c>
       <c r="B4">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C4">
-        <v>-0.5555135891318952</v>
+        <v>0.8442071301477228</v>
       </c>
       <c r="D4">
-        <v>2010</v>
-      </c>
-      <c r="E4">
-        <v>0.2972988696328782</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40494</v>
+        <v>40862</v>
       </c>
       <c r="B5">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C5">
-        <v>0.8442071301477228</v>
+        <v>1.122475521884692</v>
       </c>
       <c r="D5">
-        <v>2011</v>
-      </c>
-      <c r="E5">
-        <v>1.013480763294794</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40862</v>
+        <v>41228</v>
       </c>
       <c r="B6">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C6">
-        <v>1.122475521884692</v>
+        <v>-0.578174579726376</v>
       </c>
       <c r="D6">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E6">
-        <v>-0.4258007569310829</v>
+        <v>-0.3496173419443749</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>41228</v>
+        <v>41592</v>
       </c>
       <c r="B7">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C7">
-        <v>-0.578174579726376</v>
+        <v>-0.7492845378401558</v>
       </c>
       <c r="D7">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E7">
-        <v>-0.7514559363454909</v>
+        <v>0.05500386022236903</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>41592</v>
+        <v>41957</v>
       </c>
       <c r="B8">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C8">
-        <v>-0.7492845378401558</v>
+        <v>0.2751437421933511</v>
       </c>
       <c r="D8">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E8">
-        <v>0.2199740425759433</v>
+        <v>0.07916875696107883</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>41957</v>
+        <v>42321</v>
       </c>
       <c r="B9">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C9">
-        <v>0.2751437421933511</v>
+        <v>0.07468705617190707</v>
       </c>
       <c r="D9">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E9">
-        <v>-0.08253785766044741</v>
+        <v>0.1656566557188155</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>42321</v>
+        <v>42689</v>
       </c>
       <c r="B10">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C10">
-        <v>0.07468705617190707</v>
+        <v>-0.05493014849097255</v>
       </c>
       <c r="D10">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E10">
-        <v>-0.05493014849097255</v>
+        <v>0.2044493994367125</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>42689</v>
+        <v>43053</v>
       </c>
       <c r="B11">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C11">
-        <v>-0.05493014849097255</v>
+        <v>0.2820931576894115</v>
       </c>
       <c r="D11">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E11">
-        <v>0.1772374095820428</v>
+        <v>0.2685680645708288</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>43053</v>
+        <v>43418</v>
       </c>
       <c r="B12">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C12">
-        <v>0.2820931576894115</v>
+        <v>0.2343541283920114</v>
       </c>
       <c r="D12">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E12">
-        <v>0.4722128445998619</v>
+        <v>0.2977174885593792</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>43418</v>
+        <v>43783</v>
       </c>
       <c r="B13">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C13">
-        <v>0.2343541283920114</v>
+        <v>-0.009430310228020211</v>
       </c>
       <c r="D13">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E13">
-        <v>0.33359684781058</v>
+        <v>0.0103609600907939</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>43783</v>
+        <v>44159</v>
       </c>
       <c r="B14">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C14">
-        <v>-0.009430310228020211</v>
+        <v>-2.657403949513992</v>
       </c>
       <c r="D14">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E14">
-        <v>-0.09195392075255215</v>
+        <v>-1.407243743159736</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>44159</v>
+        <v>44525</v>
       </c>
       <c r="B15">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C15">
-        <v>-2.657403949513992</v>
+        <v>-0.3096364143617802</v>
       </c>
       <c r="D15">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E15">
-        <v>-1.0544282406034</v>
+        <v>0.2048390592685578</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>44525</v>
+        <v>44890</v>
       </c>
       <c r="B16">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C16">
-        <v>-0.3096364143617802</v>
+        <v>-0.1730430455425092</v>
       </c>
       <c r="D16">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E16">
-        <v>0.5763850579771912</v>
+        <v>0.2152263639657814</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>44890</v>
+        <v>45254</v>
       </c>
       <c r="B17">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C17">
-        <v>-0.1730430455425092</v>
+        <v>0.6376744206510576</v>
       </c>
       <c r="D17">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E17">
-        <v>0.5522675992340798</v>
+        <v>-0.06071040501895997</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45254</v>
+        <v>45618</v>
       </c>
       <c r="B18">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C18">
-        <v>0.6376744206510576</v>
+        <v>0.1856341247700399</v>
       </c>
       <c r="D18">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E18">
-        <v>0.2066385473532328</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2">
-        <v>45618</v>
-      </c>
-      <c r="B19">
-        <v>2024</v>
-      </c>
-      <c r="C19">
-        <v>0.1856341247700399</v>
-      </c>
-      <c r="D19">
-        <v>2025</v>
-      </c>
-      <c r="E19">
-        <v>0.1605926478871034</v>
+        <v>0.160714157635633</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AR2_50_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AR2_50_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,276 +417,299 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39765</v>
+        <v>39400</v>
       </c>
       <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2">
+        <v>2.070003986395053</v>
+      </c>
+      <c r="D2">
         <v>2008</v>
-      </c>
-      <c r="D2">
-        <v>2009</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>40130</v>
+        <v>39765</v>
       </c>
       <c r="B3">
+        <v>2008</v>
+      </c>
+      <c r="C3">
+        <v>0.517569958955022</v>
+      </c>
+      <c r="D3">
         <v>2009</v>
-      </c>
-      <c r="C3">
-        <v>-0.5555135891318952</v>
-      </c>
-      <c r="D3">
-        <v>2010</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>40494</v>
+        <v>40130</v>
       </c>
       <c r="B4">
+        <v>2009</v>
+      </c>
+      <c r="C4">
+        <v>-3.956152295564896</v>
+      </c>
+      <c r="D4">
         <v>2010</v>
-      </c>
-      <c r="C4">
-        <v>0.8442071301477228</v>
-      </c>
-      <c r="D4">
-        <v>2011</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40862</v>
+        <v>40494</v>
       </c>
       <c r="B5">
+        <v>2010</v>
+      </c>
+      <c r="C5">
+        <v>1.234995474941392</v>
+      </c>
+      <c r="D5">
         <v>2011</v>
       </c>
-      <c r="C5">
-        <v>1.122475521884692</v>
-      </c>
-      <c r="D5">
-        <v>2012</v>
+      <c r="E5">
+        <v>0.7327527981400461</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>41228</v>
+        <v>40862</v>
       </c>
       <c r="B6">
+        <v>2011</v>
+      </c>
+      <c r="C6">
+        <v>0.899360810820804</v>
+      </c>
+      <c r="D6">
         <v>2012</v>
       </c>
-      <c r="C6">
-        <v>-0.578174579726376</v>
-      </c>
-      <c r="D6">
-        <v>2013</v>
-      </c>
       <c r="E6">
-        <v>-0.3496173419443749</v>
+        <v>0.4113848771853501</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>41592</v>
+        <v>41228</v>
       </c>
       <c r="B7">
+        <v>2012</v>
+      </c>
+      <c r="C7">
+        <v>0.9010266119894084</v>
+      </c>
+      <c r="D7">
         <v>2013</v>
       </c>
-      <c r="C7">
-        <v>-0.7492845378401558</v>
-      </c>
-      <c r="D7">
-        <v>2014</v>
-      </c>
       <c r="E7">
-        <v>0.05500386022236903</v>
+        <v>1.203907967581297</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>41957</v>
+        <v>41592</v>
       </c>
       <c r="B8">
+        <v>2013</v>
+      </c>
+      <c r="C8">
+        <v>0.02019328874804938</v>
+      </c>
+      <c r="D8">
         <v>2014</v>
       </c>
-      <c r="C8">
-        <v>0.2751437421933511</v>
-      </c>
-      <c r="D8">
-        <v>2015</v>
-      </c>
       <c r="E8">
-        <v>0.07916875696107883</v>
+        <v>-0.03860754389363175</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>42321</v>
+        <v>41957</v>
       </c>
       <c r="B9">
+        <v>2014</v>
+      </c>
+      <c r="C9">
+        <v>0.1729981757035093</v>
+      </c>
+      <c r="D9">
         <v>2015</v>
       </c>
-      <c r="C9">
-        <v>0.07468705617190707</v>
-      </c>
-      <c r="D9">
-        <v>2016</v>
-      </c>
       <c r="E9">
-        <v>0.1656566557188155</v>
+        <v>0.2629870913912535</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>42689</v>
+        <v>42321</v>
       </c>
       <c r="B10">
+        <v>2015</v>
+      </c>
+      <c r="C10">
+        <v>0.09752710595589686</v>
+      </c>
+      <c r="D10">
         <v>2016</v>
       </c>
-      <c r="C10">
-        <v>-0.05493014849097255</v>
-      </c>
-      <c r="D10">
-        <v>2017</v>
-      </c>
       <c r="E10">
-        <v>0.2044493994367125</v>
+        <v>0.1987429576382649</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>43053</v>
+        <v>42689</v>
       </c>
       <c r="B11">
+        <v>2016</v>
+      </c>
+      <c r="C11">
+        <v>-0.5280591151586633</v>
+      </c>
+      <c r="D11">
         <v>2017</v>
       </c>
-      <c r="C11">
-        <v>0.2820931576894115</v>
-      </c>
-      <c r="D11">
-        <v>2018</v>
-      </c>
       <c r="E11">
-        <v>0.2685680645708288</v>
+        <v>0.1903092973221776</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>43418</v>
+        <v>43053</v>
       </c>
       <c r="B12">
+        <v>2017</v>
+      </c>
+      <c r="C12">
+        <v>0.07201851318385799</v>
+      </c>
+      <c r="D12">
         <v>2018</v>
       </c>
-      <c r="C12">
-        <v>0.2343541283920114</v>
-      </c>
-      <c r="D12">
-        <v>2019</v>
-      </c>
       <c r="E12">
-        <v>0.2977174885593792</v>
+        <v>0.2843016498274009</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>43783</v>
+        <v>43418</v>
       </c>
       <c r="B13">
+        <v>2018</v>
+      </c>
+      <c r="C13">
+        <v>0.3727661260635617</v>
+      </c>
+      <c r="D13">
         <v>2019</v>
       </c>
-      <c r="C13">
-        <v>-0.009430310228020211</v>
-      </c>
-      <c r="D13">
-        <v>2020</v>
-      </c>
       <c r="E13">
-        <v>0.0103609600907939</v>
+        <v>-0.8612142616933327</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>44159</v>
+        <v>43783</v>
       </c>
       <c r="B14">
+        <v>2019</v>
+      </c>
+      <c r="C14">
+        <v>-0.801759526476209</v>
+      </c>
+      <c r="D14">
         <v>2020</v>
       </c>
-      <c r="C14">
-        <v>-2.657403949513992</v>
-      </c>
-      <c r="D14">
-        <v>2021</v>
-      </c>
       <c r="E14">
-        <v>-1.407243743159736</v>
+        <v>0.06491682578968483</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>44525</v>
+        <v>44159</v>
       </c>
       <c r="B15">
+        <v>2020</v>
+      </c>
+      <c r="C15">
+        <v>-1.103489789942047</v>
+      </c>
+      <c r="D15">
         <v>2021</v>
       </c>
-      <c r="C15">
-        <v>-0.3096364143617802</v>
-      </c>
-      <c r="D15">
-        <v>2022</v>
-      </c>
       <c r="E15">
-        <v>0.2048390592685578</v>
+        <v>1.323658311025055</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>44890</v>
+        <v>44525</v>
       </c>
       <c r="B16">
+        <v>2021</v>
+      </c>
+      <c r="C16">
+        <v>0.9704846793491928</v>
+      </c>
+      <c r="D16">
         <v>2022</v>
       </c>
-      <c r="C16">
-        <v>-0.1730430455425092</v>
-      </c>
-      <c r="D16">
-        <v>2023</v>
-      </c>
       <c r="E16">
-        <v>0.2152263639657814</v>
+        <v>-0.6989646400249128</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45254</v>
+        <v>44890</v>
       </c>
       <c r="B17">
+        <v>2022</v>
+      </c>
+      <c r="C17">
+        <v>-0.7009264669202708</v>
+      </c>
+      <c r="D17">
         <v>2023</v>
       </c>
-      <c r="C17">
-        <v>0.6376744206510576</v>
-      </c>
-      <c r="D17">
-        <v>2024</v>
-      </c>
       <c r="E17">
-        <v>-0.06071040501895997</v>
+        <v>-0.0234350458557242</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B18">
+        <v>2023</v>
+      </c>
+      <c r="C18">
+        <v>0.3928252664241905</v>
+      </c>
+      <c r="D18">
+        <v>2024</v>
+      </c>
+      <c r="E18">
+        <v>0.196134499498668</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
         <v>45618</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>2024</v>
       </c>
-      <c r="C18">
-        <v>0.1856341247700399</v>
-      </c>
-      <c r="D18">
+      <c r="C19">
+        <v>0.3224026462283813</v>
+      </c>
+      <c r="D19">
         <v>2025</v>
       </c>
-      <c r="E18">
-        <v>0.160714157635633</v>
+      <c r="E19">
+        <v>-0.6671574593505647</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AR2_50_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AR2_50_9_winter.xlsx
@@ -641,7 +641,7 @@
         <v>2021</v>
       </c>
       <c r="E15">
-        <v>1.323658311025055</v>
+        <v>0.1236480429917863</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,7 +658,7 @@
         <v>2022</v>
       </c>
       <c r="E16">
-        <v>-0.6989646400249128</v>
+        <v>-0.411990061586387</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,7 +675,7 @@
         <v>2023</v>
       </c>
       <c r="E17">
-        <v>-0.0234350458557242</v>
+        <v>-0.2625026931658447</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -692,7 +692,7 @@
         <v>2024</v>
       </c>
       <c r="E18">
-        <v>0.196134499498668</v>
+        <v>0.2126946548430375</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,7 +709,7 @@
         <v>2025</v>
       </c>
       <c r="E19">
-        <v>-0.6671574593505647</v>
+        <v>-0.4796777936135199</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AR2_50_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AR2_50_9_winter.xlsx
@@ -422,9 +422,6 @@
       <c r="B2">
         <v>2007</v>
       </c>
-      <c r="C2">
-        <v>2.070003986395053</v>
-      </c>
       <c r="D2">
         <v>2008</v>
       </c>
@@ -436,9 +433,6 @@
       <c r="B3">
         <v>2008</v>
       </c>
-      <c r="C3">
-        <v>0.517569958955022</v>
-      </c>
       <c r="D3">
         <v>2009</v>
       </c>
@@ -451,7 +445,7 @@
         <v>2009</v>
       </c>
       <c r="C4">
-        <v>-3.956152295564896</v>
+        <v>-3.956152295564863</v>
       </c>
       <c r="D4">
         <v>2010</v>
@@ -465,7 +459,7 @@
         <v>2010</v>
       </c>
       <c r="C5">
-        <v>1.234995474941392</v>
+        <v>1.234995474941436</v>
       </c>
       <c r="D5">
         <v>2011</v>
@@ -482,7 +476,7 @@
         <v>2011</v>
       </c>
       <c r="C6">
-        <v>0.899360810820804</v>
+        <v>0.8993608108207818</v>
       </c>
       <c r="D6">
         <v>2012</v>
@@ -516,13 +510,13 @@
         <v>2013</v>
       </c>
       <c r="C8">
-        <v>0.02019328874804938</v>
+        <v>0.02019328874802717</v>
       </c>
       <c r="D8">
         <v>2014</v>
       </c>
       <c r="E8">
-        <v>-0.03860754389363175</v>
+        <v>-0.03860754389360954</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -556,7 +550,7 @@
         <v>2016</v>
       </c>
       <c r="E10">
-        <v>0.1987429576382649</v>
+        <v>0.1987429576382871</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -573,7 +567,7 @@
         <v>2017</v>
       </c>
       <c r="E11">
-        <v>0.1903092973221776</v>
+        <v>0.1903092973221998</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -584,7 +578,7 @@
         <v>2017</v>
       </c>
       <c r="C12">
-        <v>0.07201851318385799</v>
+        <v>0.0720185131838802</v>
       </c>
       <c r="D12">
         <v>2018</v>
@@ -607,7 +601,7 @@
         <v>2019</v>
       </c>
       <c r="E13">
-        <v>-0.8612142616933327</v>
+        <v>-0.8612142616933216</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -618,13 +612,13 @@
         <v>2019</v>
       </c>
       <c r="C14">
-        <v>-0.801759526476209</v>
+        <v>-0.8017595264762423</v>
       </c>
       <c r="D14">
         <v>2020</v>
       </c>
       <c r="E14">
-        <v>0.06491682578968483</v>
+        <v>0.06491682578966262</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -652,13 +646,13 @@
         <v>2021</v>
       </c>
       <c r="C16">
-        <v>0.9704846793491928</v>
+        <v>0.9704846793491706</v>
       </c>
       <c r="D16">
         <v>2022</v>
       </c>
       <c r="E16">
-        <v>-0.411990061586387</v>
+        <v>-0.4119900615863981</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -686,7 +680,7 @@
         <v>2023</v>
       </c>
       <c r="C18">
-        <v>0.3928252664241905</v>
+        <v>0.3928252664241683</v>
       </c>
       <c r="D18">
         <v>2024</v>
@@ -703,13 +697,13 @@
         <v>2024</v>
       </c>
       <c r="C19">
-        <v>0.3224026462283813</v>
+        <v>0.3224026462283369</v>
       </c>
       <c r="D19">
         <v>2025</v>
       </c>
       <c r="E19">
-        <v>-0.4796777936135199</v>
+        <v>-0.4796777936134977</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AR2_50_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AR2_50_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -706,6 +706,23 @@
         <v>-0.4796777936134977</v>
       </c>
     </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B20">
+        <v>2025</v>
+      </c>
+      <c r="C20">
+        <v>-2.06674933094535</v>
+      </c>
+      <c r="D20">
+        <v>2026</v>
+      </c>
+      <c r="E20">
+        <v>-0.3099928749133896</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
